--- a/ガイダンス表示機能技術調査.xlsx
+++ b/ガイダンス表示機能技術調査.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="10584"/>
   </bookViews>
   <sheets>
-    <sheet name="一覧" sheetId="14" r:id="rId1"/>
+    <sheet name="ガイダンス表示" sheetId="15" r:id="rId1"/>
+    <sheet name="技術一覧" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
   <si>
     <t>技術名</t>
     <rPh sb="0" eb="2">
@@ -238,11 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PLSA
-確率的潜在意味解析</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文書は複数の独立した潜在的なトピックから成るものとして，その過程を確率分布を用いてあらわした確率モデルである．</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -400,10 +396,6 @@
   </si>
   <si>
     <t>BoWは文書数の増大に伴い非常に大きなサイズの行列になるため、単語の情報を知りたいときは文書の情報を100～200次元へ圧縮してその後の分析を行なうというケースが多い。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TF-IDF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -437,11 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LDA
-潜在的ディリクレ配分法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://spjai.com/topic-model/</t>
   </si>
   <si>
@@ -661,12 +648,573 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://github.com/smurakami/jp_wordnet</t>
+  </si>
+  <si>
+    <t>python setup.py install</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/Guriido/jProcessing_py3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ガイダンス表示判断視点</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い換えキーワード</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センテンス意思の理解</t>
+    <rPh sb="5" eb="7">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>word2vec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wordnet,word2vec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wnjpn-all.tab</t>
+  </si>
+  <si>
+    <t>■wordnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードUrｌ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い換え単語データファイル</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　言葉の言い換えについて、参照可能と思います。</t>
+    <rPh sb="2" eb="4">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■minhash文章類似度を計算</t>
+    <rPh sb="8" eb="10">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">jNlp.jProcessing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>これは何ですか？</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>これはわからないです</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>s = Similarities()</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(s.minhash(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.join(jTokenize(a)), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>' '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.join(jTokenize(b))))</t>
+    </r>
+  </si>
+  <si>
+    <t>...0.210526315789</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cabocha-python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mecab </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．jNlpのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．環境</t>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールコマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．ソースサンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bert解決可能ですが、訓練データの作成について、間に合わない。
+代わりの方法、調査中。。。</t>
+    <rPh sb="4" eb="6">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>類似度計算方法</t>
+    <rPh sb="0" eb="2">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■jNlp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jNlpは日本語NLPパッケージなので、活用できることを検討予定です。</t>
+    <rPh sb="5" eb="8">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用度について、調査中</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ガイダンス表示の考え方</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．文章のクレンジング</t>
+    <rPh sb="2" eb="4">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要ワードを削除</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：【を、に、する】など</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．文章のトッピングを抽出</t>
+    <rPh sb="2" eb="4">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLSA
+確率的潜在意味解析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDA
+潜在的ディリクレ配分法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     TF-IDF,LDAを使って、会話内容から、トッピングを抽出</t>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．トッピングとガイダンス内容の類似度を計算</t>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ルイジド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　cider、minhashなどを使って、類似度を計算します。</t>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■センテンス意思の理解</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深層学習モデルを使います。</t>
+    <rPh sb="0" eb="4">
+      <t>シンソウガクシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の方法について、調査中</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　抽出トッピングの数、文章な長さなど考えて、自動計算予定です。</t>
+    <rPh sb="2" eb="4">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,8 +1271,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF008080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF008080"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,8 +1331,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -799,6 +1399,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -808,7 +1501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,86 +1517,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1253,10 +1988,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B32" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="B33" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="39"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="39"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="39"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1266,63 +2302,63 @@
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="4.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="55" style="13" customWidth="1"/>
-    <col min="8" max="9" width="3.77734375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="57.88671875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="83.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="55" style="12" customWidth="1"/>
+    <col min="8" max="9" width="3.77734375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="57.88671875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="83.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>75</v>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="2:13" ht="66" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1330,38 +2366,38 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="C5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="J5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="11">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.2" x14ac:dyDescent="0.2">
@@ -1370,36 +2406,36 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="2:13" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
@@ -1409,109 +2445,109 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>3</v>
       </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:13" s="17" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
         <f>MAX($B$4:B7)+1</f>
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="18">
         <v>1</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="J8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:13" s="18" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="B9" s="6">
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="2:13" s="17" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
         <f>MAX($B$4:B8)+1</f>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="17" t="s">
+      <c r="J9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>1</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>33</v>
+      <c r="M9" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="118.8" x14ac:dyDescent="0.2">
@@ -1519,38 +2555,38 @@
         <f>MAX($B$4:B9)+1</f>
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="G10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="M10" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="12">
-        <v>3</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="105.6" x14ac:dyDescent="0.2">
@@ -1559,37 +2595,37 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>3</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>43</v>
+      <c r="M11" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="52.8" x14ac:dyDescent="0.2">
@@ -1598,199 +2634,199 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="11">
+        <v>3</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="12">
-        <v>3</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="13" spans="2:13" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>MAX($B$4:B12)+1</f>
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6">
         <v>5</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>61</v>
+      <c r="F13" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>60</v>
+      <c r="L13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>MAX($B$4:B13)+1</f>
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6">
         <v>4</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>59</v>
+      <c r="F14" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="H14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="H14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>52</v>
+      <c r="L14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
+      <c r="D17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="24"/>
+      <c r="D18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="28"/>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="12" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>37</v>
+      <c r="G22" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
